--- a/shared/ojb-resources-common/src/main/resources/ssp/Person Health_Information_Search_Results/artifacts/service_model/information_model/IEPD/documentation/mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Person Health_Information_Search_Results/artifacts/service_model/information_model/IEPD/documentation/mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="3500" windowWidth="29300" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="-28060" yWindow="2760" windowWidth="29300" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,25 +39,25 @@
     <t>Unique and Timeless ID</t>
   </si>
   <si>
-    <t>/evalsres-doc:PersonEvaluationSearchResults/nc30:Person/evalsres-ext:PersonTemporaryIdentification/nc30:IdentificationID</t>
-  </si>
-  <si>
-    <t>/evalsres-doc:PersonEvaluationSearchResults/nc30:Person/evalsres-ext:PersonPersistentIdentification/nc30:IdentificationID</t>
-  </si>
-  <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
     <t>Diagnosis</t>
   </si>
   <si>
     <t>SMI Indicator</t>
   </si>
   <si>
-    <t>/evalsres-doc:PersonEvaluationSearchResults/jxdm51:Evaluation/jxdm51:EvaluationDiagnosisDescriptionText</t>
-  </si>
-  <si>
     <t>/evalsres-doc:PersonEvaluationSearchResults/jxdm51:Evaluation/evalsres-ext:SeriousMentalIllnessIndicator</t>
+  </si>
+  <si>
+    <t>Behavioral Health</t>
+  </si>
+  <si>
+    <t>/phisres-doc:PersonHealthInformationSearchResults/nc30:Person/phisres-ext:PersonPersistentIdentification</t>
+  </si>
+  <si>
+    <t>/phisres-doc:PersonHealthInformationSearchResults/phisres-ext:BehavioralHealthInformation/jxdm51:Evaluation/jxdm51:EvaluationDiagnosisDescriptionText</t>
+  </si>
+  <si>
+    <t>/phisres-doc:PersonHealthInformationSearchResults/nc30:Person/phisres-ext:PersonTemporaryIdentification/nc30:IdentificationID</t>
   </si>
 </sst>
 </file>
@@ -510,12 +510,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -539,24 +539,24 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -565,10 +565,10 @@
     <row r="5" spans="1:3">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
